--- a/23mar24_sessinonplan.xlsx
+++ b/23mar24_sessinonplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay/Documents/Learning/2024_YSN/leaflet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B274D7-6FD0-0144-AA7F-7C74D8B9536F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A37232-55C2-FC4A-A8ED-ABFDFD6B84D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="2" r:id="rId1"/>
@@ -321,9 +321,6 @@
     <t>SP</t>
   </si>
   <si>
-    <t xml:space="preserve">Yishin Park </t>
-  </si>
-  <si>
     <t>YP</t>
   </si>
   <si>
@@ -595,6 +592,9 @@
   </si>
   <si>
     <t>each person 6 locations?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yishun Park </t>
   </si>
 </sst>
 </file>
@@ -911,7 +911,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1570,16 +1570,16 @@
         <v>87</v>
       </c>
       <c r="C33" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="E33" s="5">
         <v>4</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="13" hidden="1" x14ac:dyDescent="0.15">
@@ -1590,10 +1590,10 @@
         <v>87</v>
       </c>
       <c r="C34" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="E34" s="5">
         <v>2</v>
@@ -1608,10 +1608,10 @@
         <v>87</v>
       </c>
       <c r="C35" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="E35" s="5">
         <v>2</v>
@@ -1626,16 +1626,16 @@
         <v>87</v>
       </c>
       <c r="C36" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>105</v>
       </c>
       <c r="E36" s="5">
         <v>4</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="13" hidden="1" x14ac:dyDescent="0.15">
@@ -1643,13 +1643,13 @@
         <v>0</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="D37" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="E37" s="5">
         <v>2</v>
@@ -1664,22 +1664,22 @@
         <v>8</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="E38" s="2">
         <v>6</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G38" s="6">
         <v>45340</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="13" x14ac:dyDescent="0.15">
@@ -1690,10 +1690,10 @@
         <v>8</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="E39" s="2">
         <v>3</v>
@@ -1703,7 +1703,7 @@
         <v>45346</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="13" hidden="1" x14ac:dyDescent="0.15">
@@ -1714,10 +1714,10 @@
         <v>8</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="E40" s="2">
         <v>2</v>
@@ -1734,10 +1734,10 @@
         <v>8</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="E41" s="2">
         <v>2</v>
@@ -1752,10 +1752,10 @@
         <v>8</v>
       </c>
       <c r="C42" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="E42" s="5">
         <v>17</v>
@@ -1767,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="D43" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>125</v>
       </c>
       <c r="E43" s="5">
         <v>4</v>
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C44" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>127</v>
       </c>
       <c r="E44" s="5">
         <v>4</v>
@@ -1803,13 +1803,13 @@
         <v>0</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C45" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="E45" s="5">
         <v>7</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C46" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="E46" s="5">
         <v>2</v>
@@ -1839,13 +1839,13 @@
         <v>0</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C47" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="E47" s="5">
         <v>2</v>
@@ -1857,19 +1857,19 @@
         <v>0</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="E48" s="2">
         <v>4</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="13" hidden="1" x14ac:dyDescent="0.15">
@@ -1877,13 +1877,13 @@
         <v>0</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C49" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="E49" s="2">
         <v>2</v>
@@ -1895,13 +1895,13 @@
         <v>0</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="E50" s="2">
         <v>3</v>
@@ -1913,13 +1913,13 @@
         <v>0</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C51" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="E51" s="2">
         <v>5</v>
@@ -1931,13 +1931,13 @@
         <v>0</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C52" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="E52" s="2">
         <v>4</v>
@@ -1952,16 +1952,16 @@
         <v>7</v>
       </c>
       <c r="C53" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="E53" s="2">
         <v>7</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="13" x14ac:dyDescent="0.15">
@@ -1972,16 +1972,16 @@
         <v>7</v>
       </c>
       <c r="C54" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="E54" s="2">
         <v>5</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="13" hidden="1" x14ac:dyDescent="0.15">
@@ -1992,10 +1992,10 @@
         <v>7</v>
       </c>
       <c r="C55" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="E55" s="2">
         <v>2</v>
@@ -2010,16 +2010,16 @@
         <v>7</v>
       </c>
       <c r="C56" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="E56" s="2">
         <v>9</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="13" hidden="1" x14ac:dyDescent="0.15">
@@ -2030,16 +2030,16 @@
         <v>7</v>
       </c>
       <c r="C57" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="E57" s="2">
         <v>1</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="13" hidden="1" x14ac:dyDescent="0.15">
@@ -2050,10 +2050,10 @@
         <v>7</v>
       </c>
       <c r="C58" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="E58" s="2">
         <v>2</v>
@@ -2068,22 +2068,22 @@
         <v>7</v>
       </c>
       <c r="C59" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="E59" s="2">
         <v>5</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G59" s="6">
         <v>45346</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="13" x14ac:dyDescent="0.15">
@@ -2094,16 +2094,16 @@
         <v>7</v>
       </c>
       <c r="C60" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="E60" s="2">
         <v>6</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="13" x14ac:dyDescent="0.15">
@@ -2114,16 +2114,16 @@
         <v>7</v>
       </c>
       <c r="C61" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>170</v>
       </c>
       <c r="E61" s="5">
         <v>8</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="13" x14ac:dyDescent="0.15">
@@ -2134,16 +2134,16 @@
         <v>7</v>
       </c>
       <c r="C62" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>173</v>
       </c>
       <c r="E62" s="5">
         <v>4</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="13" hidden="1" x14ac:dyDescent="0.15">
@@ -2154,10 +2154,10 @@
         <v>7</v>
       </c>
       <c r="C63" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D63" s="5" t="s">
         <v>175</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>176</v>
       </c>
       <c r="E63" s="5">
         <v>2</v>
@@ -2172,10 +2172,10 @@
         <v>7</v>
       </c>
       <c r="C64" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>177</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>178</v>
       </c>
       <c r="E64" s="5">
         <v>3</v>
@@ -2190,16 +2190,16 @@
         <v>7</v>
       </c>
       <c r="C65" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D65" s="5" t="s">
         <v>179</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>180</v>
       </c>
       <c r="E65" s="5">
         <v>1</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="13" x14ac:dyDescent="0.15">
@@ -2210,16 +2210,16 @@
         <v>7</v>
       </c>
       <c r="C66" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D66" s="5" t="s">
         <v>182</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>183</v>
       </c>
       <c r="E66" s="5">
         <v>10</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="13" hidden="1" x14ac:dyDescent="0.15">
@@ -2230,10 +2230,10 @@
         <v>7</v>
       </c>
       <c r="C67" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D67" s="5" t="s">
         <v>185</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>186</v>
       </c>
       <c r="E67" s="5">
         <v>2</v>
@@ -2260,7 +2260,7 @@
     </row>
     <row r="71" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="B71" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
@@ -2269,7 +2269,7 @@
     </row>
     <row r="72" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="B72" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
@@ -2575,7 +2575,7 @@
   <customSheetViews>
     <customSheetView guid="{08774B55-1DDC-4A03-A4BA-277D4843FA6E}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="E1:E1024" xr:uid="{4F2337DF-5B29-EC48-8B14-16A833D105E0}"/>
+      <autoFilter ref="E1:E1024" xr:uid="{7AE76224-115A-1543-9085-B69D47136BD8}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
